--- a/inventario_ferreteria.xlsx
+++ b/inventario_ferreteria.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres Diseños\Desktop\FUNDAMENTOS DE PROGRAMACION\MI_PROYECTO_PROGRAMACION\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{289CC9FF-C2DF-4DFD-AFE4-D910B508123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -217,8 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,13 +287,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +339,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -359,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -393,9 +408,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -568,14 +584,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -615,7 +639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -635,7 +659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -655,7 +679,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -675,7 +699,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -695,7 +719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -715,7 +739,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -735,7 +759,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -755,7 +779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -775,7 +799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -795,7 +819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -815,7 +839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -835,7 +859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -855,7 +879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -875,7 +899,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -895,7 +919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -915,7 +939,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -935,7 +959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -955,7 +979,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -975,7 +999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>

--- a/inventario_ferreteria.xlsx
+++ b/inventario_ferreteria.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres Diseños\Desktop\FUNDAMENTOS DE PROGRAMACION\MI_PROYECTO_PROGRAMACION\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289CC9FF-C2DF-4DFD-AFE4-D910B508123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -223,8 +217,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,21 +281,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,7 +325,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -373,7 +359,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -408,10 +393,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,22 +568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -639,7 +615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -659,7 +635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -679,7 +655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -699,7 +675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -719,7 +695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -739,7 +715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -759,7 +735,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -779,7 +755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -799,7 +775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -819,7 +795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -839,7 +815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -859,7 +835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -879,7 +855,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -899,7 +875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -919,7 +895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -939,7 +915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -959,7 +935,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -979,7 +955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -999,7 +975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
